--- a/lib/classes/rogue/RoguishArchetypes.xlsx
+++ b/lib/classes/rogue/RoguishArchetypes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Arcane Trickster</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Assassin</t>
   </si>
   <si>
+    <t>Inquisitive</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>3/Assassinate=9/Infiltration Expertise=13/Impostor=17/Death Strike</t>
+  </si>
+  <si>
+    <t>3/Ear for Deceit=3/Eye for Detail=3/Insightful Fighting=9/Steady Eye=13/Unerring Eye=17/Eye for Weakness</t>
   </si>
 </sst>
 </file>
@@ -301,53 +307,74 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -355,7 +382,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/lib/classes/rogue/RoguishArchetypes.xlsx
+++ b/lib/classes/rogue/RoguishArchetypes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Arcane Trickster</t>
   </si>
@@ -22,12 +22,48 @@
     <t>Inquisitive</t>
   </si>
   <si>
+    <t>Mastermind</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Revived</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Soulknife</t>
+  </si>
+  <si>
+    <t>Swashbuckler</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Wild Card</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
     <t>Disguise Kit=Poisoner's Kit</t>
   </si>
   <si>
+    <t>Disguise Kit=Forgery Kit=?Artisan’s Tools</t>
+  </si>
+  <si>
+    <t>Dice set/Playing card set/Dragonchess set</t>
+  </si>
+  <si>
+    <t>Nature=Survival</t>
+  </si>
+  <si>
+    <t>?Standard=?Standard</t>
+  </si>
+  <si>
     <t>true=classes/rogue/BonusSpellsArcaneTrickster.xlsx</t>
   </si>
   <si>
@@ -37,6 +73,9 @@
     <t>true=Intelligence=classes/rogue/SpellSlotsArcaneTrickster.xlsx=classes/rogue/SpellListArcaneTrickster.xlsx=K</t>
   </si>
   <si>
+    <t>true=Intelligence=classes/rogue/SpellSlotsWild Card.xlsx=classes/rogue/SpellListWild Card.xlsx=K</t>
+  </si>
+  <si>
     <t>3/Mage Hand=3/Mage Hand Legerdemain=9/Magical Ambush=13/Versatile Trickster=17/Spell Thief</t>
   </si>
   <si>
@@ -44,6 +83,33 @@
   </si>
   <si>
     <t>3/Ear for Deceit=3/Eye for Detail=3/Insightful Fighting=9/Steady Eye=13/Unerring Eye=17/Eye for Weakness</t>
+  </si>
+  <si>
+    <t>3/Master of Intrigue=3/Master of Tactics=9/Insightful Manipulator=13/Misdirection=17/Soul of Deceit</t>
+  </si>
+  <si>
+    <t>3/Whispers of the Dead=3/Wails from the Grave=9/Tokens of the Departed=13/Ghost Walk=17/Death Knell</t>
+  </si>
+  <si>
+    <t>3/Tokens of Past Lives=3/Revived Nature=3/Bolts from the Grave=9/Connect with the Dead=13/Audience with Death=17/Ethereal Jaunt</t>
+  </si>
+  <si>
+    <t>3/Skirmisher=3/Survivalist=9/Superior Mobility=13/Ambush Master=17/Sudden Strike</t>
+  </si>
+  <si>
+    <t>3/Psychic Blades=9/Soul Blades=13/Psychic Veil=17/Rend Mind</t>
+  </si>
+  <si>
+    <t>3/Fancy Footwork=3/Rakish Audacity (Bonus to Initiative equal to Cha Mod)=9/Panache=13/Elegant Maneuver=17/Master Duelist</t>
+  </si>
+  <si>
+    <t>3/Fast Hands=3/Second-Story Work=9/Supreme Sneak=13/Use Magic Device=17/Thief's Reflexes</t>
+  </si>
+  <si>
+    <t>3/Wild Card’s Gambit=9/Shifting the Odds=13/Twist of Fate=17/Joker Wild</t>
+  </si>
+  <si>
+    <t>3/Psionic Power</t>
   </si>
 </sst>
 </file>
@@ -310,93 +376,344 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/lib/classes/rogue/RoguishArchetypes.xlsx
+++ b/lib/classes/rogue/RoguishArchetypes.xlsx
@@ -100,7 +100,7 @@
     <t>3/Psychic Blades=9/Soul Blades=13/Psychic Veil=17/Rend Mind</t>
   </si>
   <si>
-    <t>3/Fancy Footwork=3/Rakish Audacity (Bonus to Initiative equal to Cha Mod)=9/Panache=13/Elegant Maneuver=17/Master Duelist</t>
+    <t>3/Fancy Footwork=3/Rakish Audacity=9/Panache=13/Elegant Maneuver=17/Master Duelist</t>
   </si>
   <si>
     <t>3/Fast Hands=3/Second-Story Work=9/Supreme Sneak=13/Use Magic Device=17/Thief's Reflexes</t>
